--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adam9-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adam9-Itgav.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.915632</v>
+        <v>5.685592333333333</v>
       </c>
       <c r="H2">
-        <v>35.74689599999999</v>
+        <v>17.056777</v>
       </c>
       <c r="I2">
-        <v>0.2203762099850903</v>
+        <v>0.1188473284691575</v>
       </c>
       <c r="J2">
-        <v>0.2203762099850903</v>
+        <v>0.1188473284691575</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N2">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O2">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P2">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q2">
-        <v>251.4119867703893</v>
+        <v>21.37632996735222</v>
       </c>
       <c r="R2">
-        <v>2262.707880933504</v>
+        <v>192.38696970617</v>
       </c>
       <c r="S2">
-        <v>0.06428894583017443</v>
+        <v>0.008126206318975102</v>
       </c>
       <c r="T2">
-        <v>0.06428894583017444</v>
+        <v>0.0081262063189751</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.915632</v>
+        <v>5.685592333333333</v>
       </c>
       <c r="H3">
-        <v>35.74689599999999</v>
+        <v>17.056777</v>
       </c>
       <c r="I3">
-        <v>0.2203762099850903</v>
+        <v>0.1188473284691575</v>
       </c>
       <c r="J3">
-        <v>0.2203762099850903</v>
+        <v>0.1188473284691575</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>107.458313</v>
       </c>
       <c r="O3">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P3">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q3">
-        <v>426.8112376829386</v>
+        <v>203.6547201819112</v>
       </c>
       <c r="R3">
-        <v>3841.301139146447</v>
+        <v>1832.892481637201</v>
       </c>
       <c r="S3">
-        <v>0.1091405580600577</v>
+        <v>0.07741928930545708</v>
       </c>
       <c r="T3">
-        <v>0.1091405580600578</v>
+        <v>0.07741928930545706</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.915632</v>
+        <v>5.685592333333333</v>
       </c>
       <c r="H4">
-        <v>35.74689599999999</v>
+        <v>17.056777</v>
       </c>
       <c r="I4">
-        <v>0.2203762099850903</v>
+        <v>0.1188473284691575</v>
       </c>
       <c r="J4">
-        <v>0.2203762099850903</v>
+        <v>0.1188473284691575</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>46.22309</v>
       </c>
       <c r="O4">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P4">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q4">
-        <v>183.5924434476266</v>
+        <v>87.60188204232556</v>
       </c>
       <c r="R4">
-        <v>1652.33199102864</v>
+        <v>788.41693838093</v>
       </c>
       <c r="S4">
-        <v>0.04694670609485814</v>
+        <v>0.03330183284472538</v>
       </c>
       <c r="T4">
-        <v>0.04694670609485815</v>
+        <v>0.03330183284472537</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>89.40146100000001</v>
       </c>
       <c r="I5">
-        <v>0.5511514941691684</v>
+        <v>0.622926875404983</v>
       </c>
       <c r="J5">
-        <v>0.5511514941691684</v>
+        <v>0.6229268754049829</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N5">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O5">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P5">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q5">
-        <v>628.7706471125628</v>
+        <v>112.0419836584233</v>
       </c>
       <c r="R5">
-        <v>5658.935824013065</v>
+        <v>1008.37785292581</v>
       </c>
       <c r="S5">
-        <v>0.1607839092761356</v>
+        <v>0.04259273116508507</v>
       </c>
       <c r="T5">
-        <v>0.1607839092761356</v>
+        <v>0.04259273116508506</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>89.40146100000001</v>
       </c>
       <c r="I6">
-        <v>0.5511514941691684</v>
+        <v>0.622926875404983</v>
       </c>
       <c r="J6">
-        <v>0.5511514941691684</v>
+        <v>0.6229268754049829</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>107.458313</v>
       </c>
       <c r="O6">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P6">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q6">
         <v>1067.43668653281</v>
@@ -818,10 +818,10 @@
         <v>9606.930178795295</v>
       </c>
       <c r="S6">
-        <v>0.2729558769221387</v>
+        <v>0.4057857808359421</v>
       </c>
       <c r="T6">
-        <v>0.2729558769221387</v>
+        <v>0.405785780835942</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>89.40146100000001</v>
       </c>
       <c r="I7">
-        <v>0.5511514941691684</v>
+        <v>0.622926875404983</v>
       </c>
       <c r="J7">
-        <v>0.5511514941691684</v>
+        <v>0.6229268754049829</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>46.22309</v>
       </c>
       <c r="O7">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P7">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q7">
         <v>459.1568642149434</v>
@@ -880,10 +880,10 @@
         <v>4132.411777934491</v>
       </c>
       <c r="S7">
-        <v>0.1174117079708941</v>
+        <v>0.1745483634039558</v>
       </c>
       <c r="T7">
-        <v>0.1174117079708942</v>
+        <v>0.1745483634039557</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>37.06015</v>
       </c>
       <c r="I8">
-        <v>0.2284722958457413</v>
+        <v>0.2582257961258595</v>
       </c>
       <c r="J8">
-        <v>0.2284722958457413</v>
+        <v>0.2582257961258594</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N8">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O8">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P8">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q8">
-        <v>260.6482515715111</v>
+        <v>46.44546827572222</v>
       </c>
       <c r="R8">
-        <v>2345.8342641436</v>
+        <v>418.0092144815</v>
       </c>
       <c r="S8">
-        <v>0.06665076530863377</v>
+        <v>0.01765623277552173</v>
       </c>
       <c r="T8">
-        <v>0.06665076530863379</v>
+        <v>0.01765623277552172</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>37.06015</v>
       </c>
       <c r="I9">
-        <v>0.2284722958457413</v>
+        <v>0.2582257961258595</v>
       </c>
       <c r="J9">
-        <v>0.2284722958457413</v>
+        <v>0.2582257961258594</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>107.458313</v>
       </c>
       <c r="O9">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P9">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q9">
         <v>442.4912442807722</v>
@@ -1004,10 +1004,10 @@
         <v>3982.42119852695</v>
       </c>
       <c r="S9">
-        <v>0.1131501166643798</v>
+        <v>0.1682129322880656</v>
       </c>
       <c r="T9">
-        <v>0.1131501166643798</v>
+        <v>0.1682129322880656</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>37.06015</v>
       </c>
       <c r="I10">
-        <v>0.2284722958457413</v>
+        <v>0.2582257961258595</v>
       </c>
       <c r="J10">
-        <v>0.2284722958457413</v>
+        <v>0.2582257961258594</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>46.22309</v>
       </c>
       <c r="O10">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P10">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q10">
         <v>190.3371832070555</v>
@@ -1066,10 +1066,10 @@
         <v>1713.0346488635</v>
       </c>
       <c r="S10">
-        <v>0.04867141387272778</v>
+        <v>0.07235663106227215</v>
       </c>
       <c r="T10">
-        <v>0.04867141387272779</v>
+        <v>0.07235663106227212</v>
       </c>
     </row>
   </sheetData>
